--- a/biology/Médecine/Pierre_Lefort/Pierre_Lefort.xlsx
+++ b/biology/Médecine/Pierre_Lefort/Pierre_Lefort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Lefort, né le 18 octobre 1767 à Mers-les-Bains en France et mort le 13 janvier 1843 à Amiens en France, est un médecin et chirurgien de marine français.
 </t>
@@ -511,12 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une grande partie de sa vie fut consacrée à des études médicales sur la fièvre jaune notamment par le biais d'expérience avec des malades et des volontaires à la Martinique dès 1818, ainsi que l'écriture de mémoires sur la non-contagion et importation de cette maladie.
-Jeunesse et formation
-Pierre-François Lefort dit Pierre Lefort naît à Mers-les-Bains le 18 octobre 1767, probablement "Grande Rue", soit l'actuelle rue Pasteur où une « villa Pierre-Lefort » (construite bien après, sans doute vers 1860) porte toutefois une plaque à son nom. Sa mère était Marie Jeanne Fréchon, son père Pierre Lefort était matelot de profession. Brillant élève, déjà avancé dans ses études de théologie, le jeune Pierre-François Lefort s'oriente vers des études religieuses mais voit ses ambitions ecclésiastiques brisées par la Révolution de 1789. Il étudie alors la médecine.
-En 1793, à l'âge de 26 ans, Pierre-François Lefort obtient, par concours, l'emploi de chirurgien de troisième classe dans la Marine et gagne Brest pour y commencer sa carrière.
 </t>
         </is>
       </c>
@@ -542,10 +553,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-François Lefort dit Pierre Lefort naît à Mers-les-Bains le 18 octobre 1767, probablement "Grande Rue", soit l'actuelle rue Pasteur où une « villa Pierre-Lefort » (construite bien après, sans doute vers 1860) porte toutefois une plaque à son nom. Sa mère était Marie Jeanne Fréchon, son père Pierre Lefort était matelot de profession. Brillant élève, déjà avancé dans ses études de théologie, le jeune Pierre-François Lefort s'oriente vers des études religieuses mais voit ses ambitions ecclésiastiques brisées par la Révolution de 1789. Il étudie alors la médecine.
+En 1793, à l'âge de 26 ans, Pierre-François Lefort obtient, par concours, l'emploi de chirurgien de troisième classe dans la Marine et gagne Brest pour y commencer sa carrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Baptême du feu et captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il fait partie de la flotte du contre-amiral Villaret-Joyeuse, en station à Brest, sur le vaisseau L'Indomptable . Sa première campagne le fait assister au combat du 13 prairial (1er juin 1794), où s'engloutit héroïquement le vaisseau Le Vengeur alias L’Impérial. 
@@ -564,31 +615,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Docteur de la faculté de médecine de Paris</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À son retour en France (1799), Pierre Lefort a l'occasion de sauver une flotte anglaise, dont il évalue approximativement la force : à Morlaix, il apprend que l'amiral Bruix est prêt à faire voile, il part donc à franc-étrier et lui fait sa déposition. Le lendemain la flotte anglaise paraissait devant Brest, et le zèle de Lefort trouvait sa justification.
 Lefort est ensuite employé dans les hôpitaux des grands ports de la marine ou sur les vaisseaux, tantôt en France tantôt en Espagne, tantôt chargé de traiter de l'échange des prisonniers blessés. En 1801, après le combat naval d'Algésiras, il est envoyé à Gibraltar pour y négocier l'échange des prisonniers blessés.
@@ -598,37 +651,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>La capitulation de Gênes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1808, Lefort est nommé médecin en chef du premier arrondissement maritime de l'Empire napoléonien, et habite La Spezia et Gênes. Il est encore dans cette ville en 1814 lors du blocus et du bombardement des Anglais. Chargé, comme commissaire, de traiter de la capitulation, il défend avec fierté la dignité de la France, malheureuse contre les ironies hautaines de l'amiral sir Edward Pellew.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -650,10 +672,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>La capitulation de Gênes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1808, Lefort est nommé médecin en chef du premier arrondissement maritime de l'Empire napoléonien, et habite La Spezia et Gênes. Il est encore dans cette ville en 1814 lors du blocus et du bombardement des Anglais. Chargé, comme commissaire, de traiter de la capitulation, il défend avec fierté la dignité de la France, malheureuse contre les ironies hautaines de l'amiral sir Edward Pellew.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Parenthèse new yorkaise</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Rentré en France en 1814, Lefort est envoyé, dans le cours de la même année, à la Martinique en qualité de médecin en chef. De par ses multiples voyages, il savait que des cas de fièvre ravageaient les marins de certains bâtiments militaires venus d'Europe (alors que, il le souligne dans un de ses ouvrages, ceux-ci restaient en quarantaine au Havre avant de rejoindre les colonies) mais ne peut se saisir d'emblée de ce problème. En effet, à la nouvelle de son débarquement, il est suspecté d'attachement à Napoléon par le gouverneur de l'île, Pierre de Vaugiraud, un royaliste, et se voit exilé.
 Il se fixe alors à New York et réside près de cette ville, dans une maison qui a été habitée par le général Moreau. Il y passe deux années en exerçant la médecine et obtenant le plus grand succès. Pendant son séjour à New York, il a l'occasion de nouer des rapports avec Joseph Bonaparte, qui demeurait aux environs de cette ville.
@@ -661,31 +718,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>La non-contagion de la fièvre jaune</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Mais Lefort, bientôt rappelé en France, et de nouveau médecin du roi, vint reprendre son poste en Martinique, où le général François-Xavier Donzelot avait remplacé le gouverneur de la Restauration en tant que Gouverneur de la Martinique de 1817 à 1826.
 Confronté à nouveau à la fièvre jaune, notamment sur plusieurs navires venus d'Europe et touchés par le fléau (dont le Brick de Sa Majesté, "L'Euryale"), Pierre Lefort, basé au Fort-Royal, se livre alors à des travaux de recherche sur cette maladie. Par ailleurs nommé membre d'un comité de surveillance chargé de décider si tel ou tel bateau peut être déclaré sain -ou s'il doit être assaini, par exemple avec de la chaux, avant de repartir en Europe-, Pierre Lefort accumule des notes et réflexions sur la maladie. Il commente notamment des différences observées entre les marins fraîchement arrivés d'Europe, qui contractaient la fièvre en foulant le sol de la Martinique, et les populations autochtones, qu'il jugeait plus résistantes (ce qu'il attribua un temps au "climat local" ("influences australes"). 
@@ -705,67 +764,71 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Installation à Amiens</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De retour en France, Lefort fixe alors sa résidence à Beauvais d'abord, puis à Amiens, « où il cachait modestement sa vie, dans les murs de notre cité, où ses jouissances se bornaient à une intimité restreinte à un petit nombre de personnes[1]. »
-Il meurt le 13 janvier 1843 au no 1 rue des Canettes à Amiens[2], et fut inhumé au cimetière de La Madeleine à Amiens où son épouse est inhumée également. Le couple n'a pas d'enfant.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De retour en France, Lefort fixe alors sa résidence à Beauvais d'abord, puis à Amiens, « où il cachait modestement sa vie, dans les murs de notre cité, où ses jouissances se bornaient à une intimité restreinte à un petit nombre de personnes. »
+Il meurt le 13 janvier 1843 au no 1 rue des Canettes à Amiens, et fut inhumé au cimetière de La Madeleine à Amiens où son épouse est inhumée également. Le couple n'a pas d'enfant.
 La tombe de Pierre Lefort et de son épouse, à l'état d'abandon depuis des décennies, identifiée depuis grâce à des vestiges et après une réflexion en vue de sa sauvegarde et de sa mise en valeur menée conjointement entre l'Association des Amis du cimetière de la Madeleine et le service du patrimoine de la ville de Mers-les-Bains, a été remise en état en 2013 après avis de l'architecte des bâtiments de France (le cimetière étant classé monument historique). Le 17 octobre 2013, une délégation d'élus municipaux emmenée par le maire de Mers-les-Bains et conseiller général Emmanuel Maquet et l'adjoint au patrimoine Michel Delépine sont allés rendre hommage à Pierre Lefort par un dépôt de gerbe, aux côtés de Raymonde Gillmann, présidente des Amis de la Madeleine.
 			Serment de Pierre Lefort nommé chevalier de la Légion d'honneur.
 			Tombe de Pierre Lefort au cimetière de La Madeleine d'Amiens, restauré en 2013 par les Amis de la Madeleine.
-			Inauguration en 2007 du buste en bronze du Monument à Pierre Lefort, réalisé par Éric Luttenauer d'après celui de Théobald-Joseph Sporer (1900)[3].
+			Inauguration en 2007 du buste en bronze du Monument à Pierre Lefort, réalisé par Éric Luttenauer d'après celui de Théobald-Joseph Sporer (1900).
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions et fonctions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>En 1823, Pierre Lefort est :
 chevalier de la Légion d'honneur,
@@ -778,39 +841,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Hommages posthumes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>À Amiens, l'ancienne rue Neuve-du-Moulin, faubourg de Beauvais, porte désormais le nom de rue Pierre Lefort[4].
-À Mers-les-Bains, sa ville natale, une rue et une place portent le nom de Pierre Lefort.
-Sur cette place (actuelle place centrale de la station balnéaire) est érigé le Monument à Pierre Lefort (1900), avec un buste en bronze du sculpteur Éric Luttenauer d'après celui sculpté par Théobald-Joseph Sporer en 1900. Ce nouveau buste a été inauguré en 2007 sur la place centrale de Mers-Les-Bains, ceci sur fond d'une large évocation historique avec présence sur le site de groupes de reconstitution historique (grognards, médecins et chirurgiens sous l'Empire…), grâce à une souscription publique initiée par la municipalité de Mers-les-Bains et la délégation de Picardie de la Fondation du Patrimoine. Le buste a été fondu par les fonderies alsaciennes Strassacker. Sur le piédestal de pierre, érigé en 1900, sont rappelés les faits médicaux et la qualité de philanthrope de Lefort[5].
-Le 17 octobre 2013, un jour avant la date anniversaire de sa naissance, une délégation d'élus de sa commune d'origine emmenée par le maire de Mers-les-Bains, Emmanuel Maquet, lui a rendu hommage, à la suite de la restauration de sa tombe par les Amis du cimetière de La Madeleine d'Amiens en lien avec l'adjoint mersois au patrimoine, Michel Delépine[réf. nécessaire].</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
@@ -832,10 +862,47 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Hommages posthumes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>À Amiens, l'ancienne rue Neuve-du-Moulin, faubourg de Beauvais, porte désormais le nom de rue Pierre Lefort.
+À Mers-les-Bains, sa ville natale, une rue et une place portent le nom de Pierre Lefort.
+Sur cette place (actuelle place centrale de la station balnéaire) est érigé le Monument à Pierre Lefort (1900), avec un buste en bronze du sculpteur Éric Luttenauer d'après celui sculpté par Théobald-Joseph Sporer en 1900. Ce nouveau buste a été inauguré en 2007 sur la place centrale de Mers-Les-Bains, ceci sur fond d'une large évocation historique avec présence sur le site de groupes de reconstitution historique (grognards, médecins et chirurgiens sous l'Empire…), grâce à une souscription publique initiée par la municipalité de Mers-les-Bains et la délégation de Picardie de la Fondation du Patrimoine. Le buste a été fondu par les fonderies alsaciennes Strassacker. Sur le piédestal de pierre, érigé en 1900, sont rappelés les faits médicaux et la qualité de philanthrope de Lefort.
+Le 17 octobre 2013, un jour avant la date anniversaire de sa naissance, une délégation d'élus de sa commune d'origine emmenée par le maire de Mers-les-Bains, Emmanuel Maquet, lui a rendu hommage, à la suite de la restauration de sa tombe par les Amis du cimetière de La Madeleine d'Amiens en lien avec l'adjoint mersois au patrimoine, Michel Delépine[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lefort</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Pierre Lefort a vu trois de ses mémoires de médecine spécialisés sur la fièvre jaune publiés par les sociétés médicales officielles : 
 Opinion de M. Lefort, médecin du Roi à la Martinique, sur la non-contagion et importation de la Fièvre Jaune (1819).
